--- a/ofc/estimates/ukhutaar bhitri sadak/ukhutaar bhitri sadak.xlsx
+++ b/ofc/estimates/ukhutaar bhitri sadak/ukhutaar bhitri sadak.xlsx
@@ -2,29 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\ukhutaar bhitri sadak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\ukhutaar bhitri sadak\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
     <sheet name="Estimate (3)" sheetId="19" r:id="rId2"/>
+    <sheet name="quotation single wall" sheetId="20" r:id="rId3"/>
+    <sheet name="in nepali" sheetId="21" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
+    <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
     <definedName name="description_248">[1]Abstract!$B$23</definedName>
@@ -38,11 +42,13 @@
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Estimate (3)'!$A$1:$K$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Estimate (3)'!$A$1:$K$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'in nepali'!$A$5:$K$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'quotation single wall'!$A$5:$K$64</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Estimate (3)'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="86">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -266,19 +272,190 @@
     <t>-for hume pipe</t>
   </si>
   <si>
-    <t>e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df</t>
+    <t>Providing and laying Brick masonry work in superstructure/ sub-structure complete excluding pointing and plastering, as per drawing and Technical Specifications, Cement Mortar 1:6 (1 cement : 6 sand)</t>
+  </si>
+  <si>
+    <t>-Deduction for opening</t>
+  </si>
+  <si>
+    <t>-manhole</t>
+  </si>
+  <si>
+    <t>C.I. Manhole cover including frame</t>
+  </si>
+  <si>
+    <t>-Rounded manhole cover medium duty 500mm (24")</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>VAT 13%</t>
+  </si>
+  <si>
+    <t>Grand total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod(without watering) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(पुर्ने कार्य)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (ढुंगा सोलिंग )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications., RCC Grade M 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(आर सी सी ढलान )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(खन्ने कार्य)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(पी सी सी)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (ढुंगा वाल )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Providing and Laying Reinforced cement concrete NP3 Flush jointed pipe for culverts including fixing with cement mortar 1:2 as per Drawing and Technical Specifications., 450 mm  internal dia. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(ह्युम पाइप)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Providing and laying Brick masonry work in superstructure/ sub-structure complete excluding pointing and plastering, as per drawing and Technical Specifications, Cement Mortar 1:6 (1 cement : 6 sand) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(मंगाल इट्टा वाल )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C.I. Manhole cover including frame </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(मंगाल को ढकनी)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Information board </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(सुचना पाटि)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +567,31 @@
       <sz val="12"/>
       <name val="Preeti"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -440,9 +642,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -450,7 +652,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,14 +672,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -486,7 +688,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,7 +713,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -544,7 +746,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,7 +755,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -568,7 +770,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,11 +786,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,16 +802,28 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,6 +886,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -679,7 +902,62 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -813,33 +1091,33 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="33">
           <cell r="B33" t="str">
             <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Manual Means ., Roadway Excavation in all types of soil as per drawing and technical specification, including removal of stumps and other deleterious matter, with all lifts and lead as per Drawing and instruction of the Engineer.</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -872,8 +1150,8 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
         <row r="60">
           <cell r="B60" t="str">
             <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
@@ -885,25 +1163,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -995,7 +1273,7 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="299">
           <cell r="B299" t="str">
@@ -1003,25 +1281,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1296,106 +1574,106 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="81" t="e">
+      <c r="C6" s="85" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1403,90 +1681,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="81" t="e">
+      <c r="J6" s="85" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="86"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="I7" s="77" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="I7" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="75" t="e">
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="I8" s="78" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="I8" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="e">
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="I9" s="78" t="s">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="I9" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="73" t="s">
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1505,10 +1783,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1551,7 +1829,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="33" t="e">
         <f>#REF!</f>
@@ -1573,7 +1851,7 @@
       <c r="J14" s="28"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="12"/>
@@ -1586,7 +1864,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1629,7 +1907,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="12"/>
@@ -1642,7 +1920,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
@@ -1703,139 +1981,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-    </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-    </row>
-    <row r="5" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="94" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
       <c r="O6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +2151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="138" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>1</v>
       </c>
@@ -1896,7 +2174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="38" t="str">
         <f>B21</f>
@@ -1906,15 +2184,15 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="39">
-        <f>D38-20</f>
+        <f>D40-20</f>
         <v>10</v>
       </c>
       <c r="E10" s="39">
-        <f>F38/2</f>
+        <f>F40/2</f>
         <v>0.90673575129533679</v>
       </c>
       <c r="F10" s="39">
-        <f>F38</f>
+        <f>F40</f>
         <v>1.8134715025906736</v>
       </c>
       <c r="G10" s="40">
@@ -1932,18 +2210,18 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="38"/>
       <c r="C11" s="37">
         <v>0.5</v>
       </c>
       <c r="D11" s="39">
-        <f>D38-D10</f>
+        <f>D40-D10</f>
         <v>20</v>
       </c>
       <c r="E11" s="39">
-        <f>F38/2</f>
+        <f>F40/2</f>
         <v>0.90673575129533679</v>
       </c>
       <c r="F11" s="39">
@@ -1965,7 +2243,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="38" t="s">
         <v>67</v>
@@ -1974,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="39">
-        <f>C48*D48</f>
+        <f>C50*D50</f>
         <v>30</v>
       </c>
       <c r="E12" s="39">
@@ -1998,7 +2276,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
         <v>42</v>
@@ -2029,7 +2307,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
         <v>40</v>
@@ -2053,7 +2331,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="38"/>
       <c r="C15" s="19"/>
@@ -2072,7 +2350,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -2095,7 +2373,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="38" t="s">
         <v>62</v>
@@ -2107,7 +2385,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="39">
-        <f>E27</f>
+        <f>E28</f>
         <v>4.8671136848521792</v>
       </c>
       <c r="F17" s="39">
@@ -2125,7 +2403,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="38" t="s">
         <v>42</v>
@@ -2150,7 +2428,7 @@
       </c>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="38"/>
       <c r="C19" s="43"/>
@@ -2163,7 +2441,7 @@
       <c r="J19" s="46"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:18" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -2186,21 +2464,21 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="38" t="str">
-        <f>B32</f>
+        <f>B33</f>
         <v>-For stone masonary</v>
       </c>
       <c r="C21" s="37">
         <v>1</v>
       </c>
       <c r="D21" s="39">
-        <f>D32</f>
+        <f>D33</f>
         <v>30</v>
       </c>
       <c r="E21" s="39">
-        <f>E32</f>
+        <f>E33</f>
         <v>0.90673575129533679</v>
       </c>
       <c r="F21" s="39">
@@ -2221,7 +2499,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="38" t="s">
         <v>62</v>
@@ -2230,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="39">
-        <f>D38</f>
+        <f>D40</f>
         <v>30</v>
       </c>
       <c r="E22" s="39">
@@ -2251,52 +2529,70 @@
       <c r="M22" s="25"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
       <c r="B23" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="34">
-        <f>SUM(G21:G22)</f>
-        <v>25.982322462663817</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="34">
-        <v>4434.5200000000004</v>
-      </c>
-      <c r="J23" s="45">
-        <f>G23*I23</f>
-        <v>115219.12860713196</v>
-      </c>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="C23" s="75">
+        <v>2</v>
+      </c>
+      <c r="D23" s="74">
+        <f>(1.8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E23" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="F23" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="40">
+        <f>C23*(PI())*(D23)*E23*F23/4</f>
+        <v>0.76340701482231976</v>
+      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46">
-        <f>0.13*G23*(14817.6/5)</f>
-        <v>10009.887194391951</v>
+      <c r="G24" s="34">
+        <f>SUM(G21:G23)</f>
+        <v>26.745729477486137</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="34">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J24" s="45">
+        <f>G24*I24</f>
+        <v>118604.47228250184</v>
       </c>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
@@ -2304,109 +2600,109 @@
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
+      <c r="J25" s="46">
+        <f>0.13*G24*(14817.6/5)</f>
+        <v>10303.995548745563</v>
+      </c>
       <c r="K25" s="37"/>
     </row>
-    <row r="26" spans="1:18" ht="69" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
         <v>4</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B27" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38" t="str">
-        <f>B22</f>
-        <v>-for road</v>
-      </c>
-      <c r="C27" s="37">
-        <v>1</v>
-      </c>
-      <c r="D27" s="39">
-        <f>D22</f>
-        <v>30</v>
-      </c>
-      <c r="E27" s="39">
-        <f>E22</f>
-        <v>4.8671136848521792</v>
-      </c>
-      <c r="F27" s="39">
-        <v>0.15</v>
-      </c>
-      <c r="G27" s="40">
-        <f>PRODUCT(C27:F27)</f>
-        <v>21.902011581834802</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="21"/>
       <c r="M27" s="25"/>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="34">
-        <f>SUM(G27:G27)</f>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="38" t="str">
+        <f>B22</f>
+        <v>-for road</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1</v>
+      </c>
+      <c r="D28" s="39">
+        <f>D22</f>
+        <v>30</v>
+      </c>
+      <c r="E28" s="39">
+        <f>E22</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G28" s="40">
+        <f>PRODUCT(C28:F28)</f>
         <v>21.902011581834802</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="34">
-        <v>11588.17</v>
-      </c>
-      <c r="J28" s="45">
-        <f>G28*I28</f>
-        <v>253804.2335522706</v>
-      </c>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="46">
-        <f>0.13*G28*((128662.2+6685.5)/15)</f>
-        <v>25691.353072447422</v>
+      <c r="G29" s="34">
+        <f>SUM(G28:G28)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="34">
+        <v>11588.17</v>
+      </c>
+      <c r="J29" s="45">
+        <f>G29*I29</f>
+        <v>253804.2335522706</v>
       </c>
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="38"/>
+      <c r="B30" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
       <c r="E30" s="44"/>
@@ -2414,62 +2710,44 @@
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
-      <c r="J30" s="46"/>
+      <c r="J30" s="46">
+        <f>0.13*G29*((128662.2+6685.5)/15)</f>
+        <v>25691.353072447422</v>
+      </c>
       <c r="K30" s="37"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="69" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>5</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="21"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="1"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="37"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="37">
-        <v>1</v>
-      </c>
-      <c r="D32" s="39">
-        <f>D38</f>
-        <v>30</v>
-      </c>
-      <c r="E32" s="39">
-        <f>F38/2</f>
-        <v>0.90673575129533679</v>
-      </c>
-      <c r="F32" s="39">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G32" s="40">
-        <f>PRODUCT(C32:F32)</f>
-        <v>2.0401554404145079</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
+    <row r="32" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>5</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="21"/>
       <c r="M32" s="25"/>
       <c r="N32" s="1"/>
@@ -2478,25 +2756,28 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="38"/>
+      <c r="B33" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="C33" s="37">
         <v>1</v>
       </c>
       <c r="D33" s="39">
-        <f>D32</f>
+        <f>D40</f>
         <v>30</v>
       </c>
       <c r="E33" s="39">
-        <v>0.5</v>
+        <f>F40/2</f>
+        <v>0.90673575129533679</v>
       </c>
       <c r="F33" s="39">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G33" s="40">
         <f>PRODUCT(C33:F33)</f>
-        <v>0.75</v>
+        <v>2.0401554404145079</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
@@ -2504,400 +2785,408 @@
       <c r="K33" s="21"/>
       <c r="M33" s="25"/>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="38" t="s">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37">
+        <v>1</v>
+      </c>
+      <c r="D34" s="39">
+        <f>D33</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="40">
+        <f>PRODUCT(C34:F34)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="75">
+        <v>2</v>
+      </c>
+      <c r="D35" s="74">
+        <f>(1.8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E35" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="F35" s="74">
+        <v>0.08</v>
+      </c>
+      <c r="G35" s="40">
+        <f>C35*(PI())*(D35)*E35*F35/4</f>
+        <v>0.40715040790523727</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="34">
-        <f>SUM(G32:G33)</f>
-        <v>2.7901554404145079</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="34">
-        <v>10634.5</v>
-      </c>
-      <c r="J34" s="45">
-        <f>G34*I34</f>
-        <v>29671.908031088085</v>
-      </c>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="46">
-        <f>0.13*G34*((114907.3+6135.3)/15)</f>
-        <v>2926.9731305699488</v>
-      </c>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38"/>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
       <c r="E36" s="44"/>
       <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="46"/>
+      <c r="G36" s="34">
+        <f>SUM(G33:G35)</f>
+        <v>3.1973058483197452</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="34">
+        <v>10634.5</v>
+      </c>
+      <c r="J36" s="45">
+        <f>G36*I36</f>
+        <v>34001.749043956333</v>
+      </c>
       <c r="K36" s="37"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="64">
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="46">
+        <f>0.13*G36*((114907.3+6135.3)/15)</f>
+        <v>3354.0885115905057</v>
+      </c>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="37"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
         <v>6</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B39" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="29"/>
-      <c r="S37"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38" t="s">
+      <c r="C39" s="65"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="29"/>
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C40" s="37">
         <v>1</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D40" s="39">
         <v>30</v>
       </c>
-      <c r="E38" s="39">
-        <f>((F38/2+0.5)/2)</f>
+      <c r="E40" s="39">
+        <f>((F40/2+0.5)/2)</f>
         <v>0.70336787564766845</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F40" s="39">
         <f>((11+0.9)/3.281)/2</f>
         <v>1.8134715025906736</v>
       </c>
-      <c r="G38" s="40">
-        <f>PRODUCT(C38:F38)</f>
+      <c r="G40" s="40">
+        <f>PRODUCT(C40:F40)</f>
         <v>38.26612794974362</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="21"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="38" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="34">
-        <f>SUM(G38:G38)</f>
-        <v>38.26612794974362</v>
-      </c>
-      <c r="H39" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="34">
-        <v>9709.43</v>
-      </c>
-      <c r="J39" s="45">
-        <f>G39*I39</f>
-        <v>371542.29069907923</v>
-      </c>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="46">
-        <f>0.13*G39*((27092.1)/5)</f>
-        <v>26954.453890708479</v>
-      </c>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="38"/>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="45"/>
+      <c r="G41" s="34">
+        <f>SUM(G40:G40)</f>
+        <v>38.26612794974362</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="34">
+        <v>9709.43</v>
+      </c>
+      <c r="J41" s="45">
+        <f>G41*I41</f>
+        <v>371542.29069907923</v>
+      </c>
       <c r="K41" s="37"/>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="46">
+        <f>0.13*G41*((27092.1)/5)</f>
+        <v>26954.453890708479</v>
+      </c>
+      <c r="K42" s="37"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
         <v>7</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B44" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D44" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E44" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F44" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G44" s="68" t="s">
         <v>58</v>
-      </c>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38" t="str">
-        <f>B22</f>
-        <v>-for road</v>
-      </c>
-      <c r="C43" s="20">
-        <f>TRUNC((D22-0.1)/0.15,0)+1</f>
-        <v>200</v>
-      </c>
-      <c r="D43" s="20">
-        <f>(D22-0.1)</f>
-        <v>29.9</v>
-      </c>
-      <c r="E43" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F43" s="21">
-        <f>PRODUCT(C43:E43)</f>
-        <v>5315.5555555555557</v>
-      </c>
-      <c r="G43" s="69">
-        <f>F43/1000</f>
-        <v>5.315555555555556</v>
-      </c>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="20">
-        <f>TRUNC((E22-0.1)/0.15,0)+1</f>
-        <v>32</v>
-      </c>
-      <c r="D44" s="20">
-        <f>(E22-0.1)</f>
-        <v>4.7671136848521796</v>
-      </c>
-      <c r="E44" s="21">
-        <f>12*12/162</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F44" s="21">
-        <f>PRODUCT(C44:E44)</f>
-        <v>135.59790036912867</v>
-      </c>
-      <c r="G44" s="69">
-        <f>F44/1000</f>
-        <v>0.13559790036912867</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="23"/>
       <c r="J44" s="42"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="23">
-        <f>SUM(G43:G44)</f>
-        <v>5.4511534559246844</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="23">
-        <v>131940</v>
-      </c>
-      <c r="J45" s="42">
-        <f>G45*I45</f>
-        <v>719225.18697470287</v>
-      </c>
+      <c r="B45" s="38" t="str">
+        <f>B22</f>
+        <v>-for road</v>
+      </c>
+      <c r="C45" s="20">
+        <f>TRUNC((D22-0.1)/0.15,0)+1</f>
+        <v>200</v>
+      </c>
+      <c r="D45" s="20">
+        <f>(D22-0.1)</f>
+        <v>29.9</v>
+      </c>
+      <c r="E45" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F45" s="21">
+        <f>PRODUCT(C45:E45)</f>
+        <v>5315.5555555555557</v>
+      </c>
+      <c r="G45" s="69">
+        <f>F45/1000</f>
+        <v>5.315555555555556</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="C46" s="20">
+        <f>TRUNC((E22-0.1)/0.15,0)+1</f>
+        <v>32</v>
+      </c>
+      <c r="D46" s="20">
+        <f>(E22-0.1)</f>
+        <v>4.7671136848521796</v>
+      </c>
+      <c r="E46" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F46" s="21">
+        <f>PRODUCT(C46:E46)</f>
+        <v>135.59790036912867</v>
+      </c>
+      <c r="G46" s="69">
+        <f>F46/1000</f>
+        <v>0.13559790036912867</v>
+      </c>
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="42">
-        <f>0.13*G45*106200</f>
-        <v>75258.624612496191</v>
-      </c>
+      <c r="J46" s="42"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="C47" s="19"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="42"/>
+      <c r="G47" s="23">
+        <f>SUM(G45:G46)</f>
+        <v>5.4511534559246844</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J47" s="42">
+        <f>G47*I47</f>
+        <v>719225.18697470287</v>
+      </c>
       <c r="K47" s="21"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="18">
-        <v>8</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="19">
-        <f>D38/2.5</f>
-        <v>12</v>
-      </c>
-      <c r="D48" s="20">
-        <v>2.5</v>
-      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="35">
-        <f>PRODUCT(C48:F48)</f>
-        <v>30</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="42">
+        <f>0.13*G47*106200</f>
+        <v>75258.624612496191</v>
+      </c>
       <c r="K48" s="21"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-    </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="35">
-        <f>SUM(G48)</f>
-        <v>30</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="23">
-        <v>5144.96</v>
-      </c>
-      <c r="J49" s="35">
-        <f>G49*I49</f>
-        <v>154348.79999999999</v>
-      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="21"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-    </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="46">
-        <f>0.13*G49*57364.6/12.5</f>
-        <v>17897.7552</v>
-      </c>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>8</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="19">
+        <f>D40/2.5</f>
+        <v>12</v>
+      </c>
+      <c r="D50" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="35">
+        <f>PRODUCT(C50:F50)</f>
+        <v>30</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="21"/>
       <c r="M50" s="25"/>
       <c r="N50" s="1"/>
@@ -2907,17 +3196,29 @@
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
-      <c r="B51" s="38"/>
+      <c r="B51" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="C51" s="37"/>
       <c r="D51" s="39"/>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="46"/>
+      <c r="G51" s="35">
+        <f>SUM(G50)</f>
+        <v>30</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" s="23">
+        <v>5144.96</v>
+      </c>
+      <c r="J51" s="35">
+        <f>G51*I51</f>
+        <v>154348.79999999999</v>
+      </c>
       <c r="K51" s="21"/>
       <c r="M51" s="25"/>
       <c r="N51" s="1"/>
@@ -2927,12 +3228,10 @@
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
-        <v>9</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>68</v>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="39"/>
@@ -2941,7 +3240,10 @@
       <c r="G52" s="40"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
-      <c r="J52" s="46"/>
+      <c r="J52" s="46">
+        <f>0.13*G51*57364.6/12.5</f>
+        <v>17897.7552</v>
+      </c>
       <c r="K52" s="21"/>
       <c r="M52" s="25"/>
       <c r="N52" s="1"/>
@@ -2951,11 +3253,9 @@
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
-      <c r="B53" s="38">
-        <v>2</v>
-      </c>
+      <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
@@ -2973,9 +3273,13 @@
       <c r="R53" s="25"/>
       <c r="S53" s="25"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="38"/>
+    <row r="54" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>9</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="C54" s="37"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
@@ -2993,17 +3297,32 @@
       <c r="R54" s="25"/>
       <c r="S54" s="25"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="40"/>
+      <c r="B55" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="75">
+        <v>1</v>
+      </c>
+      <c r="D55" s="74">
+        <f>((1.8-0.35)+(((33)/12/3.281)-0.35))/2</f>
+        <v>0.96907954891801285</v>
+      </c>
+      <c r="E55" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F55" s="74">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="G55" s="40">
+        <f>C55*(PI())*(D55)*E55*F55</f>
+        <v>3.572430596694915</v>
+      </c>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
-      <c r="J55" s="46"/>
+      <c r="J55" s="41"/>
       <c r="K55" s="21"/>
       <c r="M55" s="25"/>
       <c r="N55" s="1"/>
@@ -3013,37 +3332,72 @@
       <c r="R55" s="25"/>
       <c r="S55" s="25"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
+      <c r="B56" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="75">
+        <v>-3</v>
+      </c>
+      <c r="D56" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F56" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G56" s="40">
+        <f>C56*(PI())*(D56*F56/4)*E56</f>
+        <v>-0.29688050576423541</v>
+      </c>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
-      <c r="J56" s="46"/>
+      <c r="J56" s="41"/>
       <c r="K56" s="21"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="N56" s="1">
+        <f>(1.5-0.23+0.6-0.23)/2</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="O56" s="1">
+        <f>22/12/3.281</f>
+        <v>0.55877273189068366</v>
+      </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="25"/>
       <c r="S56" s="25"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="40"/>
+      <c r="B57" s="38" t="str">
+        <f>B55</f>
+        <v>-manhole</v>
+      </c>
+      <c r="C57" s="75">
+        <v>1</v>
+      </c>
+      <c r="D57" s="74">
+        <f>((1.5-0.35)+((24/12/3.281)-0.35))/2</f>
+        <v>0.70478512648582736</v>
+      </c>
+      <c r="E57" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F57" s="74">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G57" s="40">
+        <f>C57*(PI())*(D57)*E57*F57</f>
+        <v>1.653356309214175</v>
+      </c>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
-      <c r="J57" s="46"/>
+      <c r="J57" s="41"/>
       <c r="K57" s="21"/>
       <c r="M57" s="25"/>
       <c r="N57" s="1"/>
@@ -3053,459 +3407,570 @@
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="40"/>
+      <c r="B58" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="75">
+        <v>-2</v>
+      </c>
+      <c r="D58" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E58" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F58" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G58" s="40">
+        <f>C58*(PI())*(D58*F58/4)*E58</f>
+        <v>-0.19792033717615695</v>
+      </c>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
-      <c r="J58" s="46"/>
+      <c r="J58" s="41"/>
       <c r="K58" s="21"/>
       <c r="M58" s="25"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="N58" s="1">
+        <f>(1.5-0.23+0.6-0.23)/2</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="O58" s="1">
+        <f>22/12/3.281</f>
+        <v>0.55877273189068366</v>
+      </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="25"/>
       <c r="S58" s="25"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="21"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-    </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="21"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-    </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="34">
+        <f>SUM(G55:G58)</f>
+        <v>4.7309860629686975</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="34">
+        <f>17546.88/1.15</f>
+        <v>15258.156521739133</v>
+      </c>
+      <c r="J59" s="45">
+        <f>G59*I59</f>
+        <v>72186.125850942772</v>
+      </c>
+      <c r="K59" s="37"/>
+      <c r="N59">
+        <f>1.667/3.281</f>
+        <v>0.50807680585187442</v>
+      </c>
+      <c r="O59">
+        <f>2.17/3.281</f>
+        <v>0.66138372447424565</v>
+      </c>
+      <c r="P59">
+        <f>(N59+O59)/2</f>
+        <v>0.58473026516306004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="46">
+        <f>0.13*G59*54835.8/5</f>
+        <v>6745.1125443452129</v>
+      </c>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
       <c r="B61" s="38"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
       <c r="J61" s="46"/>
-      <c r="K61" s="21"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-    </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="21"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18">
-        <v>9</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="19">
-        <v>1</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="35">
-        <f t="shared" ref="G63" si="0">PRODUCT(C63:F63)</f>
-        <v>1</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I63" s="23">
-        <v>500</v>
-      </c>
-      <c r="J63" s="35">
-        <f>G63*I63</f>
-        <v>500</v>
-      </c>
+      <c r="K61" s="37"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41">
+        <v>10</v>
+      </c>
+      <c r="B62" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="37"/>
+    </row>
+    <row r="63" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="73">
+        <v>2</v>
+      </c>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="40">
+        <f>PRODUCT(C63:F63)</f>
+        <v>2</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
       <c r="K63" s="21"/>
       <c r="M63" s="25"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="34">
+        <f>SUM(G63:G63)</f>
+        <v>2</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="34">
+        <v>7063</v>
+      </c>
+      <c r="J64" s="45">
+        <f>G64*I64</f>
+        <v>14126</v>
+      </c>
+      <c r="K64" s="37"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="46">
+        <f>0.13*J64</f>
+        <v>1836.38</v>
+      </c>
+      <c r="K65" s="37"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="37"/>
+    </row>
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>11</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="19">
         <v>1</v>
       </c>
-      <c r="Q63" s="72">
-        <f>P63/R63</f>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="35">
+        <f t="shared" ref="G67" si="0">PRODUCT(C67:F67)</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="23">
+        <v>500</v>
+      </c>
+      <c r="J67" s="35">
+        <f>G67*I67</f>
+        <v>500</v>
+      </c>
+      <c r="K67" s="21"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="72">
+        <f>P67/R67</f>
         <v>20</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R67" s="1">
         <f>5%</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="21"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="1"/>
-      <c r="P64">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="21"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="1"/>
+      <c r="P68">
         <v>1</v>
       </c>
-      <c r="Q64" s="70">
-        <f t="shared" ref="Q64:Q69" si="1">P64/R64</f>
+      <c r="Q68" s="70">
+        <f t="shared" ref="Q68:Q73" si="1">P68/R68</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="R64">
+      <c r="R68">
         <f>6%</f>
         <v>0.06</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="47" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42">
-        <f>SUM(J10:J63)</f>
-        <v>1835027.302057452</v>
-      </c>
-      <c r="K65" s="37"/>
-      <c r="P65">
+      <c r="C69" s="48"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42">
+        <f>SUM(J10:J67)</f>
+        <v>1938357.3288763522</v>
+      </c>
+      <c r="K69" s="37"/>
+      <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q65" s="70">
+      <c r="Q69" s="70">
         <f t="shared" si="1"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="R65">
+      <c r="R69">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="59"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="58"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="58"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1">
         <v>1</v>
       </c>
-      <c r="Q66" s="72">
+      <c r="Q70" s="72">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R70" s="1">
         <v>0.08</v>
       </c>
-      <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="29" t="s">
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="51"/>
+      <c r="B71" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="87">
-        <f>J65</f>
-        <v>1835027.302057452</v>
-      </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="40">
+      <c r="C71" s="91">
+        <f>J69</f>
+        <v>1938357.3288763522</v>
+      </c>
+      <c r="D71" s="91"/>
+      <c r="E71" s="40">
         <v>100</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="56"/>
-      <c r="O67"/>
-      <c r="P67" s="1">
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="56"/>
+      <c r="O71"/>
+      <c r="P71" s="1">
         <v>1</v>
       </c>
-      <c r="Q67" s="72">
+      <c r="Q71" s="72">
         <f t="shared" si="1"/>
         <v>11.111111111111111</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R71" s="1">
         <v>0.09</v>
       </c>
-      <c r="S67"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
-      <c r="B68" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="90">
-        <v>1300000</v>
-      </c>
-      <c r="D68" s="90"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="50"/>
-      <c r="P68" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="71">
-        <f t="shared" si="1"/>
-        <v>9.0909090909090917</v>
-      </c>
-      <c r="R68" s="1">
-        <f>11%</f>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="57"/>
-      <c r="B69" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="90">
-        <f>C68-C71-C72</f>
-        <v>1235000</v>
-      </c>
-      <c r="D69" s="90"/>
-      <c r="E69" s="40">
-        <f>C69/C67*100</f>
-        <v>67.301450971073024</v>
-      </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="50"/>
-      <c r="P69" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="72">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="R69" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="57"/>
-      <c r="B70" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="87">
-        <f>C67-C69</f>
-        <v>600027.30205745203</v>
-      </c>
-      <c r="D70" s="87"/>
-      <c r="E70" s="40">
-        <f>100-E69</f>
-        <v>32.698549028926976</v>
-      </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="50"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="57"/>
-      <c r="B71" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71" s="87">
-        <f>C68*0.03</f>
-        <v>39000</v>
-      </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="40">
-        <v>3</v>
-      </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="50"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S71"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
       <c r="B72" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="87">
-        <f>C68*0.02</f>
-        <v>26000</v>
-      </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="40">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C72" s="94">
+        <v>1300000</v>
+      </c>
+      <c r="D72" s="94"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="50"/>
       <c r="G72" s="49"/>
       <c r="H72" s="49"/>
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
       <c r="K72" s="50"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-    </row>
-    <row r="73" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-    </row>
-    <row r="74" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" spans="15:19" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O129"/>
-      <c r="P129"/>
-      <c r="Q129"/>
-      <c r="R129"/>
-      <c r="S129"/>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="71">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="R72" s="1">
+        <f>11%</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
+      <c r="B73" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="94">
+        <f>C72-C75-C76</f>
+        <v>1235000</v>
+      </c>
+      <c r="D73" s="94"/>
+      <c r="E73" s="40">
+        <f>C73/C71*100</f>
+        <v>63.713742641864599</v>
+      </c>
+      <c r="F73" s="50"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="50"/>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="72">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="57"/>
+      <c r="B74" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="91">
+        <f>C71-C73</f>
+        <v>703357.32887635217</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="E74" s="40">
+        <f>100-E73</f>
+        <v>36.286257358135401</v>
+      </c>
+      <c r="F74" s="50"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="50"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="72"/>
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="91">
+        <f>C72*0.03</f>
+        <v>39000</v>
+      </c>
+      <c r="D75" s="91"/>
+      <c r="E75" s="40">
+        <v>3</v>
+      </c>
+      <c r="F75" s="50"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="50"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="91">
+        <f>C72*0.02</f>
+        <v>26000</v>
+      </c>
+      <c r="D76" s="91"/>
+      <c r="E76" s="40">
+        <v>2</v>
+      </c>
+      <c r="F76" s="50"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="50"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+    </row>
+    <row r="77" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="58"/>
+      <c r="J77" s="58"/>
+      <c r="K77" s="58"/>
+    </row>
+    <row r="78" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="15:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="15:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="15:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="15:19" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="15:19" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3516,19 +3981,2973 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
+  <conditionalFormatting sqref="N55:AE57">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(N55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:AE23">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(N23))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35:AE35">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(N35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="str">
+        <f>B20</f>
+        <v>-For stone masonary</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="39">
+        <f>D36-20</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="39">
+        <f>F36/2</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F10" s="39">
+        <f>F36</f>
+        <v>1.8134715025906736</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>8.2216972267711892</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="39">
+        <f>D36-D10</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="39">
+        <f>F36/2</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F11" s="39">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="40">
+        <f>PRODUCT(C11:F11)</f>
+        <v>8.1606217616580317</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="37">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <f>C44*D44</f>
+        <v>30</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="G12" s="40">
+        <f>PRODUCT(C12:F12)</f>
+        <v>18</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <f>SUM(G10:G12)</f>
+        <v>34.382318988429219</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="23">
+        <f>64.63*1.15</f>
+        <v>74.324499999999986</v>
+      </c>
+      <c r="J13" s="42">
+        <f>G13*I13</f>
+        <v>2555.4486676555071</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="39">
+        <v>20</v>
+      </c>
+      <c r="E16" s="39">
+        <f>E26</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F16" s="39">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="40">
+        <f>PRODUCT(C16:F16)</f>
+        <v>73.006705272782682</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="34">
+        <f>SUM(G16:G16)</f>
+        <v>73.006705272782682</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="34">
+        <f>1.15*404.28</f>
+        <v>464.92199999999991</v>
+      </c>
+      <c r="J17" s="45">
+        <f>G17*I17</f>
+        <v>33942.423428832662</v>
+      </c>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38" t="str">
+        <f>B30</f>
+        <v>-For stone masonary</v>
+      </c>
+      <c r="C20" s="37">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <f>D30</f>
+        <v>30</v>
+      </c>
+      <c r="E20" s="39">
+        <f>E30</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="40">
+        <f>PRODUCT(C20:F20)</f>
+        <v>4.0803108808290158</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <f>D36</f>
+        <v>30</v>
+      </c>
+      <c r="E21" s="39">
+        <f>(19.25/3.281)-1</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="40">
+        <f>PRODUCT(C21:F21)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="75">
+        <v>2</v>
+      </c>
+      <c r="D22" s="74">
+        <f>(1.8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E22" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="40">
+        <f>C22*(PI())*(D22)*E22*F22/4</f>
+        <v>0.76340701482231976</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="34">
+        <f>SUM(G20:G22)</f>
+        <v>26.745729477486137</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="34">
+        <f>1.15*4434.52</f>
+        <v>5099.6980000000003</v>
+      </c>
+      <c r="J23" s="45">
+        <f>G23*I23</f>
+        <v>136395.1431248771</v>
+      </c>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="str">
+        <f>B21</f>
+        <v>-for road</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="39">
+        <f>D21</f>
+        <v>30</v>
+      </c>
+      <c r="E26" s="39">
+        <f>E21</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="40">
+        <f>PRODUCT(C26:F26)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="34">
+        <f>SUM(G26:G26)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="34">
+        <f>1.15*11588.17</f>
+        <v>13326.395499999999</v>
+      </c>
+      <c r="J27" s="45">
+        <f>G27*I27</f>
+        <v>291874.86858511117</v>
+      </c>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>5</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="37">
+        <v>1</v>
+      </c>
+      <c r="D30" s="39">
+        <f>D36</f>
+        <v>30</v>
+      </c>
+      <c r="E30" s="39">
+        <f>F36/2</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F30" s="39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G30" s="40">
+        <f>PRODUCT(C30:F30)</f>
+        <v>2.0401554404145079</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39">
+        <f>D30</f>
+        <v>30</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="40">
+        <f>PRODUCT(C31:F31)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="75">
+        <v>2</v>
+      </c>
+      <c r="D32" s="74">
+        <f>(1.8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E32" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="F32" s="74">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="40">
+        <f>C32*(PI())*(D32)*E32*F32/4</f>
+        <v>0.40715040790523727</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="34">
+        <f>SUM(G30:G32)</f>
+        <v>3.1973058483197452</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="34">
+        <f>1.15*10634.5</f>
+        <v>12229.674999999999</v>
+      </c>
+      <c r="J33" s="45">
+        <f>G33*I33</f>
+        <v>39102.011400549774</v>
+      </c>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
+        <v>6</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="29"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="37">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39">
+        <v>30</v>
+      </c>
+      <c r="E36" s="39">
+        <f>((F36/2+0.5)/2)</f>
+        <v>0.70336787564766845</v>
+      </c>
+      <c r="F36" s="39">
+        <f>((11+0.9)/3.281)/2</f>
+        <v>1.8134715025906736</v>
+      </c>
+      <c r="G36" s="40">
+        <f>PRODUCT(C36:F36)</f>
+        <v>38.26612794974362</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="34">
+        <f>SUM(G36:G36)</f>
+        <v>38.26612794974362</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="34">
+        <f>1.15*9709.43</f>
+        <v>11165.844499999999</v>
+      </c>
+      <c r="J37" s="45">
+        <f>G37*I37</f>
+        <v>427273.63430394104</v>
+      </c>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>7</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38" t="str">
+        <f>B21</f>
+        <v>-for road</v>
+      </c>
+      <c r="C40" s="20">
+        <f>TRUNC((D21-0.1)/0.15,0)+1</f>
+        <v>200</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(D21-0.1)</f>
+        <v>29.9</v>
+      </c>
+      <c r="E40" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F40" s="21">
+        <f>PRODUCT(C40:E40)</f>
+        <v>5315.5555555555557</v>
+      </c>
+      <c r="G40" s="69">
+        <f>F40/1000</f>
+        <v>5.315555555555556</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="20">
+        <f>TRUNC((E21-0.1)/0.15,0)+1</f>
+        <v>32</v>
+      </c>
+      <c r="D41" s="20">
+        <f>(E21-0.1)</f>
+        <v>4.7671136848521796</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="21">
+        <f>PRODUCT(C41:E41)</f>
+        <v>135.59790036912867</v>
+      </c>
+      <c r="G41" s="69">
+        <f>F41/1000</f>
+        <v>0.13559790036912867</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23">
+        <f>SUM(G40:G41)</f>
+        <v>5.4511534559246844</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="23">
+        <f>1.15*131940</f>
+        <v>151731</v>
+      </c>
+      <c r="J42" s="42">
+        <f>G42*I42</f>
+        <v>827108.96502090828</v>
+      </c>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>8</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="19">
+        <f>D36/2.5</f>
+        <v>12</v>
+      </c>
+      <c r="D44" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="40">
+        <f>PRODUCT(C44:F44)</f>
+        <v>30</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="35">
+        <f>SUM(G44)</f>
+        <v>30</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="23">
+        <f>1.15*5144.96</f>
+        <v>5916.7039999999997</v>
+      </c>
+      <c r="J45" s="35">
+        <f>G45*I45</f>
+        <v>177501.12</v>
+      </c>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>9</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="75">
+        <v>1</v>
+      </c>
+      <c r="D48" s="74">
+        <f>((1.8-0.35)+(((33)/12/3.281)-0.35))/2</f>
+        <v>0.96907954891801285</v>
+      </c>
+      <c r="E48" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F48" s="74">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="G48" s="40">
+        <f>C48*(PI())*(D48)*E48*F48</f>
+        <v>3.572430596694915</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="75">
+        <v>-3</v>
+      </c>
+      <c r="D49" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F49" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G49" s="40">
+        <f>C49*(PI())*(D49*F49/4)*E49</f>
+        <v>-0.29688050576423541</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="str">
+        <f>B48</f>
+        <v>-manhole</v>
+      </c>
+      <c r="C50" s="75">
+        <v>1</v>
+      </c>
+      <c r="D50" s="74">
+        <f>((1.5-0.35)+((24/12/3.281)-0.35))/2</f>
+        <v>0.70478512648582736</v>
+      </c>
+      <c r="E50" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F50" s="74">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G50" s="40">
+        <f>C50*(PI())*(D50)*E50*F50</f>
+        <v>1.653356309214175</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="75">
+        <v>-2</v>
+      </c>
+      <c r="D51" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F51" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="40">
+        <f>C51*(PI())*(D51*F51/4)*E51</f>
+        <v>-0.19792033717615695</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="34">
+        <f>SUM(G48:G51)</f>
+        <v>4.7309860629686975</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="34">
+        <f>17546.88</f>
+        <v>17546.88</v>
+      </c>
+      <c r="J52" s="45">
+        <f>G52*I52</f>
+        <v>83014.04472858418</v>
+      </c>
+      <c r="K52" s="37"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="37"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41">
+        <v>10</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="73">
+        <v>2</v>
+      </c>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="40">
+        <f>PRODUCT(C55:F55)</f>
+        <v>2</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="34">
+        <f>SUM(G55:G55)</f>
+        <v>2</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="34">
+        <f>7063</f>
+        <v>7063</v>
+      </c>
+      <c r="J56" s="45">
+        <f>G56*I56</f>
+        <v>14126</v>
+      </c>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>11</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="19">
+        <v>1</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="35">
+        <f t="shared" ref="G58" si="0">PRODUCT(C58:F58)</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="23">
+        <v>500</v>
+      </c>
+      <c r="J58" s="35">
+        <f>G58*I58</f>
+        <v>500</v>
+      </c>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42">
+        <f>SUM(J10:J58)</f>
+        <v>2033393.6592604597</v>
+      </c>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="58"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="91">
+        <f>J60</f>
+        <v>2033393.6592604597</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="56"/>
+    </row>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="99">
+        <f>0.13*C62</f>
+        <v>264341.17570385977</v>
+      </c>
+      <c r="D63" s="99"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+    </row>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="100">
+        <f>SUM(C62:D63)</f>
+        <v>2297734.8349643196</v>
+      </c>
+      <c r="D64" s="101"/>
+    </row>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C62:D62"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N119"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="155.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="38" t="str">
+        <f>B20</f>
+        <v>-For stone masonary</v>
+      </c>
+      <c r="C10" s="37">
+        <f>2*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <f>D36-20</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="39">
+        <f>F36/2</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F10" s="39">
+        <f>F36</f>
+        <v>1.8134715025906736</v>
+      </c>
+      <c r="G10" s="40">
+        <f>PRODUCT(C10:F10)</f>
+        <v>16.443394453542378</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37">
+        <f>2*0.5</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <f>D36-D10</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="39">
+        <f>F36/2</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F11" s="39">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="40">
+        <f>PRODUCT(C11:F11)</f>
+        <v>16.321243523316063</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="37">
+        <v>2</v>
+      </c>
+      <c r="D12" s="39">
+        <f>C44*D44</f>
+        <v>30</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="39">
+        <f>(F48+F50)/2</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="G12" s="40">
+        <f>PRODUCT(C12:F12)</f>
+        <v>82.291984151173423</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <f>SUM(G10:G12)</f>
+        <v>115.05662212803186</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="23">
+        <f>64.63*1.15</f>
+        <v>74.324499999999986</v>
+      </c>
+      <c r="J13" s="42">
+        <f>G13*I13</f>
+        <v>8551.5259113549018</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" ht="125.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="39">
+        <v>20</v>
+      </c>
+      <c r="E16" s="39">
+        <f>E26</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F16" s="39">
+        <f>1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="40">
+        <f>PRODUCT(C16:F16)</f>
+        <v>73.006705272782682</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="34">
+        <f>SUM(G16:G16)</f>
+        <v>73.006705272782682</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="34">
+        <f>1.15*404.28</f>
+        <v>464.92199999999991</v>
+      </c>
+      <c r="J17" s="45">
+        <f>G17*I17</f>
+        <v>33942.423428832662</v>
+      </c>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="38" t="str">
+        <f>B30</f>
+        <v>-For stone masonary</v>
+      </c>
+      <c r="C20" s="37">
+        <v>2</v>
+      </c>
+      <c r="D20" s="39">
+        <f>D30</f>
+        <v>30</v>
+      </c>
+      <c r="E20" s="39">
+        <f>E30</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="40">
+        <f>PRODUCT(C20:F20)</f>
+        <v>8.1606217616580317</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <f>D36</f>
+        <v>30</v>
+      </c>
+      <c r="E21" s="39">
+        <f>(19.25/3.281)-1</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="40">
+        <f>PRODUCT(C21:F21)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="21"/>
+      <c r="M21">
+        <f>J13+J17+(G20+G22)*I23+J33+J37+J52+J56+J58+J45</f>
+        <v>1290916.9400163144</v>
+      </c>
+      <c r="N21">
+        <f>M21*1.13</f>
+        <v>1458736.1422184352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="75">
+        <v>2</v>
+      </c>
+      <c r="D22" s="74">
+        <f>(1.8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E22" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="40">
+        <f>C22*(PI())*(D22)*E22*F22/4</f>
+        <v>0.76340701482231976</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="21"/>
+      <c r="M22">
+        <f>0.13*M21</f>
+        <v>167819.20220212088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="34">
+        <f>SUM(G20:G22)</f>
+        <v>30.826040358315154</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="34">
+        <f>1.15*4434.52</f>
+        <v>5099.6980000000003</v>
+      </c>
+      <c r="J23" s="45">
+        <f>G23*I23</f>
+        <v>157203.49636321908</v>
+      </c>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:14" ht="100.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>4</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="38" t="str">
+        <f>B21</f>
+        <v>-for road</v>
+      </c>
+      <c r="C26" s="37">
+        <v>1</v>
+      </c>
+      <c r="D26" s="39">
+        <f>D21</f>
+        <v>30</v>
+      </c>
+      <c r="E26" s="39">
+        <f>E21</f>
+        <v>4.8671136848521792</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="40">
+        <f>PRODUCT(C26:F26)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="34">
+        <f>SUM(G26:G26)</f>
+        <v>21.902011581834802</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="34">
+        <f>1.15*11588.17</f>
+        <v>13326.395499999999</v>
+      </c>
+      <c r="J27" s="45">
+        <f>G27*I27</f>
+        <v>291874.86858511117</v>
+      </c>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:14" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>5</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="37">
+        <v>2</v>
+      </c>
+      <c r="D30" s="39">
+        <f>D36</f>
+        <v>30</v>
+      </c>
+      <c r="E30" s="39">
+        <f>F36/2</f>
+        <v>0.90673575129533679</v>
+      </c>
+      <c r="F30" s="39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G30" s="40">
+        <f>PRODUCT(C30:F30)</f>
+        <v>4.0803108808290158</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37">
+        <v>2</v>
+      </c>
+      <c r="D31" s="39">
+        <f>D30</f>
+        <v>30</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="40">
+        <f>PRODUCT(C31:F31)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="75">
+        <v>2</v>
+      </c>
+      <c r="D32" s="74">
+        <f>(1.8)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E32" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="F32" s="74">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="40">
+        <f>C32*(PI())*(D32)*E32*F32/4</f>
+        <v>0.40715040790523727</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="34">
+        <f>SUM(G30:G32)</f>
+        <v>5.9874612887342531</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="34">
+        <f>1.15*10634.5</f>
+        <v>12229.674999999999</v>
+      </c>
+      <c r="J33" s="45">
+        <f>G33*I33</f>
+        <v>73224.705636301078</v>
+      </c>
+      <c r="K33" s="37"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="37"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="97.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
+        <v>6</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="65"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="29"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="37">
+        <v>2</v>
+      </c>
+      <c r="D36" s="39">
+        <v>30</v>
+      </c>
+      <c r="E36" s="39">
+        <f>((F36/2+0.5)/2)</f>
+        <v>0.70336787564766845</v>
+      </c>
+      <c r="F36" s="39">
+        <f>((11+0.9)/3.281)/2</f>
+        <v>1.8134715025906736</v>
+      </c>
+      <c r="G36" s="40">
+        <f>PRODUCT(C36:F36)</f>
+        <v>76.53225589948724</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="34">
+        <f>SUM(G36:G36)</f>
+        <v>76.53225589948724</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="34">
+        <f>1.15*9709.43</f>
+        <v>11165.844499999999</v>
+      </c>
+      <c r="J37" s="45">
+        <f>G37*I37</f>
+        <v>854547.26860788208</v>
+      </c>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>7</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="38" t="str">
+        <f>B21</f>
+        <v>-for road</v>
+      </c>
+      <c r="C40" s="20">
+        <f>TRUNC((D21-0.1)/0.15,0)+1</f>
+        <v>200</v>
+      </c>
+      <c r="D40" s="20">
+        <f>(D21-0.1)</f>
+        <v>29.9</v>
+      </c>
+      <c r="E40" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F40" s="21">
+        <f>PRODUCT(C40:E40)</f>
+        <v>5315.5555555555557</v>
+      </c>
+      <c r="G40" s="69">
+        <f>F40/1000</f>
+        <v>5.315555555555556</v>
+      </c>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="20">
+        <f>TRUNC((E21-0.1)/0.15,0)+1</f>
+        <v>32</v>
+      </c>
+      <c r="D41" s="20">
+        <f>(E21-0.1)</f>
+        <v>4.7671136848521796</v>
+      </c>
+      <c r="E41" s="21">
+        <f>12*12/162</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F41" s="21">
+        <f>PRODUCT(C41:E41)</f>
+        <v>135.59790036912867</v>
+      </c>
+      <c r="G41" s="69">
+        <f>F41/1000</f>
+        <v>0.13559790036912867</v>
+      </c>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="23">
+        <f>SUM(G40:G41)</f>
+        <v>5.4511534559246844</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I42" s="23">
+        <f>1.15*131940</f>
+        <v>151731</v>
+      </c>
+      <c r="J42" s="42">
+        <f>G42*I42</f>
+        <v>827108.96502090828</v>
+      </c>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>8</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="19">
+        <f>D36/2.5</f>
+        <v>12</v>
+      </c>
+      <c r="D44" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="40">
+        <f>PRODUCT(C44:F44)</f>
+        <v>30</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="35">
+        <f>SUM(G44)</f>
+        <v>30</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="23">
+        <f>1.15*5144.96</f>
+        <v>5916.7039999999997</v>
+      </c>
+      <c r="J45" s="35">
+        <f>G45*I45</f>
+        <v>177501.12</v>
+      </c>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" ht="130.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>9</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="75">
+        <v>1</v>
+      </c>
+      <c r="D48" s="74">
+        <f>((1.8-0.35)+(((33)/12/3.281)-0.35))/2</f>
+        <v>0.96907954891801285</v>
+      </c>
+      <c r="E48" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F48" s="74">
+        <f>11/3.281</f>
+        <v>3.3526363913441024</v>
+      </c>
+      <c r="G48" s="40">
+        <f>C48*(PI())*(D48)*E48*F48</f>
+        <v>3.572430596694915</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="75">
+        <v>-3</v>
+      </c>
+      <c r="D49" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E49" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F49" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G49" s="40">
+        <f>C49*(PI())*(D49*F49/4)*E49</f>
+        <v>-0.29688050576423541</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="38" t="str">
+        <f>B48</f>
+        <v>-manhole</v>
+      </c>
+      <c r="C50" s="75">
+        <v>1</v>
+      </c>
+      <c r="D50" s="74">
+        <f>((1.5-0.35)+((24/12/3.281)-0.35))/2</f>
+        <v>0.70478512648582736</v>
+      </c>
+      <c r="E50" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F50" s="74">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G50" s="40">
+        <f>C50*(PI())*(D50)*E50*F50</f>
+        <v>1.653356309214175</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="75">
+        <v>-2</v>
+      </c>
+      <c r="D51" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="74">
+        <v>0.35</v>
+      </c>
+      <c r="F51" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="40">
+        <f>C51*(PI())*(D51*F51/4)*E51</f>
+        <v>-0.19792033717615695</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="34">
+        <f>SUM(G48:G51)</f>
+        <v>4.7309860629686975</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="34">
+        <f>17546.88</f>
+        <v>17546.88</v>
+      </c>
+      <c r="J52" s="45">
+        <f>G52*I52</f>
+        <v>83014.04472858418</v>
+      </c>
+      <c r="K52" s="37"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="37"/>
+    </row>
+    <row r="54" spans="1:11" ht="35.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="41">
+        <v>10</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="37"/>
+    </row>
+    <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="73">
+        <v>2</v>
+      </c>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="40">
+        <f>PRODUCT(C55:F55)</f>
+        <v>2</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="34">
+        <f>SUM(G55:G55)</f>
+        <v>2</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56" s="34">
+        <f>7063</f>
+        <v>7063</v>
+      </c>
+      <c r="J56" s="45">
+        <f>G56*I56</f>
+        <v>14126</v>
+      </c>
+      <c r="K56" s="37"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>11</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="19">
+        <v>1</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="35">
+        <f t="shared" ref="G58" si="0">PRODUCT(C58:F58)</f>
+        <v>1</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="23">
+        <v>500</v>
+      </c>
+      <c r="J58" s="35">
+        <f>G58*I58</f>
+        <v>500</v>
+      </c>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42">
+        <f>SUM(J10:J58)</f>
+        <v>2521594.4182821936</v>
+      </c>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="58"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="51"/>
+      <c r="B62" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="91">
+        <f>J60</f>
+        <v>2521594.4182821936</v>
+      </c>
+      <c r="D62" s="91"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="56"/>
+    </row>
+    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="B63" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="99">
+        <f>0.13*C62</f>
+        <v>327807.27437668521</v>
+      </c>
+      <c r="D63" s="99"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+    </row>
+    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="100">
+        <f>SUM(C62:D63)</f>
+        <v>2849401.6926588789</v>
+      </c>
+      <c r="D64" s="101"/>
+    </row>
+    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>